--- a/Biotec.xlsx
+++ b/Biotec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\aula_biotec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F036CE-B4AA-4267-A672-E8659A40954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0582F-EDE5-4F4C-97FB-085C835F76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{766081E4-B63D-4B4E-AF02-64F519CA1ABA}"/>
   </bookViews>
@@ -33,66 +33,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
-    <t>RAPD1</t>
+    <t>Indivíduo</t>
   </si>
   <si>
-    <t>Acesso</t>
+    <t>500pb</t>
   </si>
   <si>
-    <t>500PB</t>
+    <t>600pb</t>
   </si>
   <si>
-    <t>600PB</t>
+    <t>700pb</t>
   </si>
   <si>
-    <t>700PB</t>
+    <t>800pb</t>
   </si>
   <si>
-    <t>800PB</t>
+    <t>900pb</t>
   </si>
   <si>
-    <t>900PB</t>
+    <t>1000pb</t>
   </si>
   <si>
-    <t>1000PB</t>
+    <t>1100pb</t>
   </si>
   <si>
-    <t>1050PB</t>
+    <t>1200pb</t>
   </si>
   <si>
-    <t>1100PB</t>
+    <t>1300pb</t>
   </si>
   <si>
-    <t>1200PB</t>
+    <t>1400pb</t>
   </si>
   <si>
-    <t>1300PB</t>
+    <t>1150pb</t>
   </si>
   <si>
-    <t>1400PB</t>
+    <t>1050pb</t>
   </si>
   <si>
-    <t>RAPD2</t>
-  </si>
-  <si>
-    <t>RAPD3</t>
-  </si>
-  <si>
-    <t>RAPD4</t>
-  </si>
-  <si>
-    <t>RAPD5</t>
-  </si>
-  <si>
-    <t>RAPD6</t>
-  </si>
-  <si>
-    <t>1150PB</t>
-  </si>
-  <si>
-    <t>650PB</t>
+    <t>650pb</t>
   </si>
 </sst>
 </file>
@@ -122,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,88 +127,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,296 +453,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4101A1DD-5814-45E4-84F3-DB76B5F906C5}">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
+      <c r="AT1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -847,22 +875,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>1</v>
@@ -874,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -922,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="2">
         <v>0</v>
@@ -952,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="AP3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
@@ -961,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="2">
         <v>0</v>
@@ -985,13 +1013,13 @@
         <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
         <v>1</v>
@@ -1003,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1026,7 +1054,7 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1050,16 +1078,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
@@ -1071,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1101,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="Z4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="2">
         <v>1</v>
@@ -1116,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="2">
         <v>1</v>
@@ -1137,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="AL4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2">
         <v>1</v>
@@ -1149,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="AP4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1188,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
         <v>1</v>
@@ -1200,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1223,13 +1251,13 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1256,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
@@ -1298,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="2">
         <v>1</v>
@@ -1316,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="AF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="2">
         <v>0</v>
@@ -1325,16 +1353,16 @@
         <v>0</v>
       </c>
       <c r="AI5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="2">
         <v>1</v>
       </c>
       <c r="AK5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="2">
         <v>1</v>
@@ -1373,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
         <v>1</v>
@@ -1420,13 +1448,13 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1438,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1453,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -1495,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="2">
         <v>0</v>
@@ -1513,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="AF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="2">
         <v>0</v>
@@ -1522,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="AI6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="2">
         <v>1</v>
       </c>
       <c r="AK6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="2">
         <v>1</v>
       </c>
       <c r="AM6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="2">
         <v>0</v>
@@ -1570,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>1</v>
@@ -1582,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
         <v>1</v>
@@ -1617,10 +1645,10 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1635,13 +1663,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1677,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
@@ -1707,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="2">
         <v>1</v>
@@ -1731,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="AM7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="2">
         <v>0</v>
@@ -1749,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="2">
         <v>0</v>
@@ -1773,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1806,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="2">
         <v>0</v>
@@ -1814,13 +1842,13 @@
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1829,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1841,13 +1869,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -1874,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="2">
         <v>0</v>
@@ -1892,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="2">
         <v>0</v>
@@ -1904,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="2">
         <v>1</v>
@@ -1916,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="2">
         <v>1</v>
@@ -1925,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="AL8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2">
         <v>1</v>
@@ -1937,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="AP8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -1970,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
         <v>1</v>
@@ -2003,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM8" s="2">
         <v>0</v>
@@ -2011,13 +2039,13 @@
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2026,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2038,13 +2066,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -2056,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2104,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="AF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="2">
         <v>0</v>
@@ -2113,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="2">
         <v>1</v>
@@ -2122,10 +2150,10 @@
         <v>1</v>
       </c>
       <c r="AL9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="2">
         <v>0</v>
@@ -2134,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="AP9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2164,16 +2192,16 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
         <v>1</v>
@@ -2185,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2208,13 +2236,13 @@
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2226,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -2241,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -2253,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2283,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="2">
         <v>1</v>
@@ -2310,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="2">
         <v>1</v>
@@ -2322,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="AM10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="2">
         <v>0</v>
@@ -2358,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2370,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
         <v>1</v>
@@ -2382,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2405,13 +2433,13 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -2420,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -2429,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2465,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
@@ -2480,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="Z11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="2">
         <v>0</v>
@@ -2507,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="2">
         <v>1</v>
       </c>
       <c r="AK11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="2">
         <v>1</v>
@@ -2537,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="2">
         <v>0</v>
@@ -2555,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -2594,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="BL11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" s="2">
         <v>0</v>
@@ -2602,7 +2630,7 @@
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -2617,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2635,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -2662,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2">
         <v>0</v>
@@ -2692,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="AE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="2">
         <v>0</v>
@@ -2710,13 +2738,13 @@
         <v>1</v>
       </c>
       <c r="AK12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="2">
         <v>0</v>
@@ -2725,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="AP12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
@@ -2764,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>1</v>
@@ -2791,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="BL12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM12" s="2">
         <v>0</v>
@@ -2799,7 +2827,7 @@
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -2859,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="2">
         <v>0</v>
@@ -2877,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="2">
         <v>0</v>
@@ -2889,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="2">
         <v>1</v>
@@ -2907,13 +2935,13 @@
         <v>1</v>
       </c>
       <c r="AK13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="2">
         <v>1</v>
       </c>
       <c r="AM13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="2">
         <v>0</v>
@@ -2922,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="AP13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
@@ -2949,16 +2977,16 @@
         <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="2">
         <v>1</v>
@@ -2988,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="BL13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM13" s="2">
         <v>0</v>
@@ -2996,10 +3024,10 @@
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -3011,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -3029,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -3041,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3056,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="2">
         <v>0</v>
@@ -3104,10 +3132,10 @@
         <v>1</v>
       </c>
       <c r="AK14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2">
         <v>1</v>
@@ -3146,19 +3174,19 @@
         <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
         <v>1</v>
@@ -3170,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3185,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM14" s="2">
         <v>0</v>
@@ -3193,10 +3221,10 @@
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -3208,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3220,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3238,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3271,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="2">
         <v>0</v>
@@ -3304,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="AL15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="2">
         <v>1</v>
@@ -3367,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3390,10 +3418,10 @@
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -3414,16 +3442,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
@@ -3468,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="2">
         <v>0</v>
@@ -3480,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="AE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2">
         <v>0</v>
@@ -3552,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
         <v>1</v>
@@ -3582,215 +3610,10 @@
         <v>1</v>
       </c>
       <c r="BM16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>1</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
-        <v>0</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BM17" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="W1:AG1"/>
-    <mergeCell ref="AR1:BB1"/>
-    <mergeCell ref="BC1:BM1"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="AH1:AQ1"/>
-    <mergeCell ref="L1:V1"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>